--- a/data/pca/factorExposure/factorExposure_2009-01-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-14.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0166276503029866</v>
+        <v>-0.01595889335298077</v>
       </c>
       <c r="C2">
-        <v>0.008608403663627636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01067417913228084</v>
+      </c>
+      <c r="D2">
+        <v>-0.01390700614497163</v>
+      </c>
+      <c r="E2">
+        <v>0.002144269122548401</v>
+      </c>
+      <c r="F2">
+        <v>0.01178254008326628</v>
+      </c>
+      <c r="G2">
+        <v>0.01530025537991458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08020068135511657</v>
+        <v>-0.08269491280075504</v>
       </c>
       <c r="C4">
-        <v>0.08371535391372323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08663845764335974</v>
+      </c>
+      <c r="D4">
+        <v>0.05845018703068975</v>
+      </c>
+      <c r="E4">
+        <v>-0.03287118165706073</v>
+      </c>
+      <c r="F4">
+        <v>0.02960610899341429</v>
+      </c>
+      <c r="G4">
+        <v>0.03054346593353218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003714823376218192</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001372712308299493</v>
+      </c>
+      <c r="D5">
+        <v>0.003052339469492032</v>
+      </c>
+      <c r="E5">
+        <v>0.002704625192060722</v>
+      </c>
+      <c r="F5">
+        <v>-0.003072885734909496</v>
+      </c>
+      <c r="G5">
+        <v>-0.002244820309144083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1675491077231421</v>
+        <v>-0.1691033073508111</v>
       </c>
       <c r="C6">
-        <v>-0.02090431955228315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.01121549454479327</v>
+      </c>
+      <c r="D6">
+        <v>0.04484968504557183</v>
+      </c>
+      <c r="E6">
+        <v>-0.03445085337685064</v>
+      </c>
+      <c r="F6">
+        <v>-0.06193218002198796</v>
+      </c>
+      <c r="G6">
+        <v>0.0005518536263286113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.055258414051248</v>
+        <v>-0.05776489805898155</v>
       </c>
       <c r="C7">
-        <v>0.05824231871650237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06333255239711902</v>
+      </c>
+      <c r="D7">
+        <v>0.03594297681658485</v>
+      </c>
+      <c r="E7">
+        <v>-0.06928087179697576</v>
+      </c>
+      <c r="F7">
+        <v>0.06093300065519457</v>
+      </c>
+      <c r="G7">
+        <v>0.04658541986881874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05450223648964288</v>
+        <v>-0.05168086490762381</v>
       </c>
       <c r="C8">
-        <v>0.05489693507261979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0536514362424781</v>
+      </c>
+      <c r="D8">
+        <v>-0.01176806359118582</v>
+      </c>
+      <c r="E8">
+        <v>0.006382229274273369</v>
+      </c>
+      <c r="F8">
+        <v>0.04245938416216661</v>
+      </c>
+      <c r="G8">
+        <v>-0.0002723522616964975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05861714641217321</v>
+        <v>-0.06274806140458426</v>
       </c>
       <c r="C9">
-        <v>0.08904579923896813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09017208564265115</v>
+      </c>
+      <c r="D9">
+        <v>0.08118001938136955</v>
+      </c>
+      <c r="E9">
+        <v>-0.04597027202938848</v>
+      </c>
+      <c r="F9">
+        <v>0.05611523363854251</v>
+      </c>
+      <c r="G9">
+        <v>0.005716718729183247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1117612557005906</v>
+        <v>-0.1018408695570194</v>
       </c>
       <c r="C10">
-        <v>-0.1440985684495143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1348354270292859</v>
+      </c>
+      <c r="D10">
+        <v>-0.09133759177466871</v>
+      </c>
+      <c r="E10">
+        <v>0.04648695465804348</v>
+      </c>
+      <c r="F10">
+        <v>0.05050146395360574</v>
+      </c>
+      <c r="G10">
+        <v>-0.02186554549177237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07844015935471275</v>
+        <v>-0.07600393513954076</v>
       </c>
       <c r="C11">
-        <v>0.1266907823186884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1266354138828474</v>
+      </c>
+      <c r="D11">
+        <v>0.05649561339419536</v>
+      </c>
+      <c r="E11">
+        <v>-0.01184205371369656</v>
+      </c>
+      <c r="F11">
+        <v>0.08033088417848133</v>
+      </c>
+      <c r="G11">
+        <v>-0.001127879941417595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07955574345903157</v>
+        <v>-0.0766445414645258</v>
       </c>
       <c r="C12">
-        <v>0.1531668811133783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1507772629503527</v>
+      </c>
+      <c r="D12">
+        <v>0.06271194352738613</v>
+      </c>
+      <c r="E12">
+        <v>-0.01785899355186369</v>
+      </c>
+      <c r="F12">
+        <v>0.08274480581715392</v>
+      </c>
+      <c r="G12">
+        <v>0.006277928285998706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04039290765341383</v>
+        <v>-0.04207027791168664</v>
       </c>
       <c r="C13">
-        <v>0.06624168696041816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07060743196261746</v>
+      </c>
+      <c r="D13">
+        <v>0.02712829244422437</v>
+      </c>
+      <c r="E13">
+        <v>-0.0237583510573684</v>
+      </c>
+      <c r="F13">
+        <v>0.07741722536873645</v>
+      </c>
+      <c r="G13">
+        <v>0.0135756616368037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02015380353116279</v>
+        <v>-0.02269114307797587</v>
       </c>
       <c r="C14">
-        <v>0.0440856544664082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04510509604645343</v>
+      </c>
+      <c r="D14">
+        <v>0.05205906659009659</v>
+      </c>
+      <c r="E14">
+        <v>-0.009933179268770995</v>
+      </c>
+      <c r="F14">
+        <v>0.07970163721138804</v>
+      </c>
+      <c r="G14">
+        <v>-0.007240311914607633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03127201895168193</v>
+        <v>-0.03325556253459563</v>
       </c>
       <c r="C15">
-        <v>0.05861976357009653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.05776576974785188</v>
+      </c>
+      <c r="D15">
+        <v>0.03715678015433194</v>
+      </c>
+      <c r="E15">
+        <v>-0.03384927816448158</v>
+      </c>
+      <c r="F15">
+        <v>0.02605544469433666</v>
+      </c>
+      <c r="G15">
+        <v>-0.01006143102492795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05672218599748854</v>
+        <v>-0.05633340140620665</v>
       </c>
       <c r="C16">
-        <v>0.1478146582629775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1475613921870807</v>
+      </c>
+      <c r="D16">
+        <v>0.0734732257589811</v>
+      </c>
+      <c r="E16">
+        <v>0.003905906153625877</v>
+      </c>
+      <c r="F16">
+        <v>0.07619069156819779</v>
+      </c>
+      <c r="G16">
+        <v>0.003460358853834449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00616405664517656</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004138434495632485</v>
+      </c>
+      <c r="D17">
+        <v>0.003920814230047626</v>
+      </c>
+      <c r="E17">
+        <v>0.007632456671582635</v>
+      </c>
+      <c r="F17">
+        <v>-0.00685529098474137</v>
+      </c>
+      <c r="G17">
+        <v>-0.01456570443134501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.03983407665038469</v>
+        <v>-0.0523615640408104</v>
       </c>
       <c r="C18">
-        <v>0.0497872532995462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04552835076832196</v>
+      </c>
+      <c r="D18">
+        <v>-0.005199241725409038</v>
+      </c>
+      <c r="E18">
+        <v>0.0005531885176135666</v>
+      </c>
+      <c r="F18">
+        <v>-0.05937323006458638</v>
+      </c>
+      <c r="G18">
+        <v>-0.01040742895136109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05689369105265762</v>
+        <v>-0.05656800050421964</v>
       </c>
       <c r="C20">
-        <v>0.09527790466585689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.09441071510601495</v>
+      </c>
+      <c r="D20">
+        <v>0.08436540231392861</v>
+      </c>
+      <c r="E20">
+        <v>-0.02394919557838</v>
+      </c>
+      <c r="F20">
+        <v>0.07181210198968109</v>
+      </c>
+      <c r="G20">
+        <v>-0.003437804663398369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04330748764373855</v>
+        <v>-0.04467513964979722</v>
       </c>
       <c r="C21">
-        <v>0.06220229674054616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.05953870345534882</v>
+      </c>
+      <c r="D21">
+        <v>0.006847863285441172</v>
+      </c>
+      <c r="E21">
+        <v>-0.01977058696662896</v>
+      </c>
+      <c r="F21">
+        <v>0.06655983688097565</v>
+      </c>
+      <c r="G21">
+        <v>0.02156107368824264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04372240366473367</v>
+        <v>-0.044500810352665</v>
       </c>
       <c r="C22">
-        <v>0.02760145383290352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0326731200145274</v>
+      </c>
+      <c r="D22">
+        <v>0.007203490638198178</v>
+      </c>
+      <c r="E22">
+        <v>0.1555938889004435</v>
+      </c>
+      <c r="F22">
+        <v>-0.01911947503527909</v>
+      </c>
+      <c r="G22">
+        <v>-0.0002102819287753924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0437318375465827</v>
+        <v>-0.04450894986441171</v>
       </c>
       <c r="C23">
-        <v>0.02759445841336935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03266696262902254</v>
+      </c>
+      <c r="D23">
+        <v>0.007188906299196642</v>
+      </c>
+      <c r="E23">
+        <v>0.1556397060208305</v>
+      </c>
+      <c r="F23">
+        <v>-0.01910833322008643</v>
+      </c>
+      <c r="G23">
+        <v>-0.0002512507575266382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06534436161567377</v>
+        <v>-0.06442055729391875</v>
       </c>
       <c r="C24">
-        <v>0.1357429316968098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.133772182664953</v>
+      </c>
+      <c r="D24">
+        <v>0.06291493371060766</v>
+      </c>
+      <c r="E24">
+        <v>-0.01618939552310529</v>
+      </c>
+      <c r="F24">
+        <v>0.0735854368014094</v>
+      </c>
+      <c r="G24">
+        <v>0.007677555289148207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0708887811591678</v>
+        <v>-0.06927458033759426</v>
       </c>
       <c r="C25">
-        <v>0.119323343197594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1183147979427447</v>
+      </c>
+      <c r="D25">
+        <v>0.03300603470451537</v>
+      </c>
+      <c r="E25">
+        <v>-0.03393418473155562</v>
+      </c>
+      <c r="F25">
+        <v>0.09050259710591212</v>
+      </c>
+      <c r="G25">
+        <v>0.008893543457765272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05585596565581608</v>
+        <v>-0.05941296732101772</v>
       </c>
       <c r="C26">
-        <v>0.06721867323655176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.06991302786118453</v>
+      </c>
+      <c r="D26">
+        <v>0.02893264704624492</v>
+      </c>
+      <c r="E26">
+        <v>-0.00360097530348136</v>
+      </c>
+      <c r="F26">
+        <v>0.08079991580624021</v>
+      </c>
+      <c r="G26">
+        <v>-0.002920401533853669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1727662540185725</v>
+        <v>-0.1747987532785013</v>
       </c>
       <c r="C28">
-        <v>-0.2268417063789867</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2281061025256419</v>
+      </c>
+      <c r="D28">
+        <v>-0.0443407162953269</v>
+      </c>
+      <c r="E28">
+        <v>-0.05047271323501004</v>
+      </c>
+      <c r="F28">
+        <v>0.1411578276609003</v>
+      </c>
+      <c r="G28">
+        <v>-0.007766557595909092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02378188758498757</v>
+        <v>-0.02644140554568959</v>
       </c>
       <c r="C29">
-        <v>0.05106082798174519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04935510049789414</v>
+      </c>
+      <c r="D29">
+        <v>0.02295652856658038</v>
+      </c>
+      <c r="E29">
+        <v>0.01000560030580356</v>
+      </c>
+      <c r="F29">
+        <v>0.07536415719235545</v>
+      </c>
+      <c r="G29">
+        <v>-0.00403993502472175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03893895080356246</v>
+        <v>-0.04008777260236128</v>
       </c>
       <c r="C30">
-        <v>0.06828376024818998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07578671610223625</v>
+      </c>
+      <c r="D30">
+        <v>0.08526034155279366</v>
+      </c>
+      <c r="E30">
+        <v>-0.118209469273301</v>
+      </c>
+      <c r="F30">
+        <v>0.06772251535972604</v>
+      </c>
+      <c r="G30">
+        <v>-0.009707204677048966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05210222326101704</v>
+        <v>-0.05140619239096066</v>
       </c>
       <c r="C31">
-        <v>0.03329066725420948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03578474580744687</v>
+      </c>
+      <c r="D31">
+        <v>0.02638347790013442</v>
+      </c>
+      <c r="E31">
+        <v>0.02737669283653396</v>
+      </c>
+      <c r="F31">
+        <v>0.0204325652007858</v>
+      </c>
+      <c r="G31">
+        <v>0.02284499143084343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04462953860180283</v>
+        <v>-0.04825308409760629</v>
       </c>
       <c r="C32">
-        <v>0.05305733536132564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05153119699761476</v>
+      </c>
+      <c r="D32">
+        <v>0.02874747845807328</v>
+      </c>
+      <c r="E32">
+        <v>0.006033342113541371</v>
+      </c>
+      <c r="F32">
+        <v>0.005138827715029074</v>
+      </c>
+      <c r="G32">
+        <v>-0.006195961778896674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07844677913178667</v>
+        <v>-0.08195960134180481</v>
       </c>
       <c r="C33">
-        <v>0.1140607810823196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1227159189256541</v>
+      </c>
+      <c r="D33">
+        <v>0.07302807247706149</v>
+      </c>
+      <c r="E33">
+        <v>-0.0231914134117151</v>
+      </c>
+      <c r="F33">
+        <v>0.07216573321852364</v>
+      </c>
+      <c r="G33">
+        <v>-0.002974012300915881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05434916506105886</v>
+        <v>-0.05421365716090855</v>
       </c>
       <c r="C34">
-        <v>0.1221666329736085</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1226459020628535</v>
+      </c>
+      <c r="D34">
+        <v>0.06568775610349355</v>
+      </c>
+      <c r="E34">
+        <v>-0.05125185606370158</v>
+      </c>
+      <c r="F34">
+        <v>0.08465973852426199</v>
+      </c>
+      <c r="G34">
+        <v>-0.02301804347663168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02575885521688991</v>
+        <v>-0.02879901300396051</v>
       </c>
       <c r="C35">
-        <v>0.01533562940309902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01774768126109617</v>
+      </c>
+      <c r="D35">
+        <v>0.0280587826294847</v>
+      </c>
+      <c r="E35">
+        <v>0.01101716014307745</v>
+      </c>
+      <c r="F35">
+        <v>0.03531351694366486</v>
+      </c>
+      <c r="G35">
+        <v>-0.02763710740876426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02330634851951193</v>
+        <v>-0.02714039306842888</v>
       </c>
       <c r="C36">
-        <v>0.05123887200472875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05083129094509477</v>
+      </c>
+      <c r="D36">
+        <v>0.06370904978835353</v>
+      </c>
+      <c r="E36">
+        <v>-0.01269890624908627</v>
+      </c>
+      <c r="F36">
+        <v>0.02883489695677757</v>
+      </c>
+      <c r="G36">
+        <v>-0.08018335939400278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0002086946673007146</v>
+        <v>-0.003535011486144345</v>
       </c>
       <c r="C37">
-        <v>-0.0006242373441725556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007427901742710193</v>
+      </c>
+      <c r="D37">
+        <v>0.00144201388289042</v>
+      </c>
+      <c r="E37">
+        <v>-0.001178765314573522</v>
+      </c>
+      <c r="F37">
+        <v>0.01031047271546086</v>
+      </c>
+      <c r="G37">
+        <v>0.006149728815268513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.079795637807809</v>
+        <v>-0.07524049940032598</v>
       </c>
       <c r="C39">
-        <v>0.1489508592174341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1429168968599378</v>
+      </c>
+      <c r="D39">
+        <v>0.03982546997203436</v>
+      </c>
+      <c r="E39">
+        <v>0.006766850010032265</v>
+      </c>
+      <c r="F39">
+        <v>0.1328853977642363</v>
+      </c>
+      <c r="G39">
+        <v>0.0434274089283683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0453251205228534</v>
+        <v>-0.04966082302913569</v>
       </c>
       <c r="C40">
-        <v>0.06757328551984905</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07394257570028294</v>
+      </c>
+      <c r="D40">
+        <v>0.0172704889074422</v>
+      </c>
+      <c r="E40">
+        <v>-0.003842041163257129</v>
+      </c>
+      <c r="F40">
+        <v>0.04803714101567425</v>
+      </c>
+      <c r="G40">
+        <v>-0.04095032167397503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02747711119425323</v>
+        <v>-0.02842148874342319</v>
       </c>
       <c r="C41">
-        <v>0.02218861135353069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02362237510177048</v>
+      </c>
+      <c r="D41">
+        <v>-0.004717672091113133</v>
+      </c>
+      <c r="E41">
+        <v>0.008730628310573797</v>
+      </c>
+      <c r="F41">
+        <v>-0.01020849908856549</v>
+      </c>
+      <c r="G41">
+        <v>-0.01259933823017114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04236221592359864</v>
+        <v>-0.04135314726331855</v>
       </c>
       <c r="C43">
-        <v>0.03847003192554581</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03578447858520643</v>
+      </c>
+      <c r="D43">
+        <v>0.01221785201071787</v>
+      </c>
+      <c r="E43">
+        <v>0.03292375129646719</v>
+      </c>
+      <c r="F43">
+        <v>0.02671136382825752</v>
+      </c>
+      <c r="G43">
+        <v>-0.0001809923878253205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05448552394475527</v>
+        <v>-0.06166277806112354</v>
       </c>
       <c r="C44">
-        <v>0.08100935946188594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.08444439161158665</v>
+      </c>
+      <c r="D44">
+        <v>0.2382487120365781</v>
+      </c>
+      <c r="E44">
+        <v>-0.1602760393802223</v>
+      </c>
+      <c r="F44">
+        <v>0.130686091969238</v>
+      </c>
+      <c r="G44">
+        <v>-0.1625937796254716</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006021126828714355</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0007979736982170617</v>
+      </c>
+      <c r="D45">
+        <v>-0.001487677928997268</v>
+      </c>
+      <c r="E45">
+        <v>-0.001434055444653546</v>
+      </c>
+      <c r="F45">
+        <v>-0.003254233184809731</v>
+      </c>
+      <c r="G45">
+        <v>0.004667709429463487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02809763840005787</v>
+        <v>-0.02895854460025241</v>
       </c>
       <c r="C46">
-        <v>0.03898714567375965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03689183036552688</v>
+      </c>
+      <c r="D46">
+        <v>0.03113870960692164</v>
+      </c>
+      <c r="E46">
+        <v>0.02751933968443711</v>
+      </c>
+      <c r="F46">
+        <v>0.07207921192256646</v>
+      </c>
+      <c r="G46">
+        <v>0.02421693356609838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05262755381737198</v>
+        <v>-0.05250910630264306</v>
       </c>
       <c r="C47">
-        <v>0.03362587696171018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03394352161804579</v>
+      </c>
+      <c r="D47">
+        <v>0.006560346624922794</v>
+      </c>
+      <c r="E47">
+        <v>0.05708944585518298</v>
+      </c>
+      <c r="F47">
+        <v>-0.006194989296260474</v>
+      </c>
+      <c r="G47">
+        <v>0.0263787404467617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04627317275498752</v>
+        <v>-0.04923008890991131</v>
       </c>
       <c r="C48">
-        <v>0.06807691185555423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06811015076186078</v>
+      </c>
+      <c r="D48">
+        <v>0.01685246538200651</v>
+      </c>
+      <c r="E48">
+        <v>-0.03063453328824633</v>
+      </c>
+      <c r="F48">
+        <v>0.05687561894477137</v>
+      </c>
+      <c r="G48">
+        <v>0.02920046970898483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1931251625632764</v>
+        <v>-0.1977656572414951</v>
       </c>
       <c r="C49">
-        <v>-0.01418710429429266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01069029320049661</v>
+      </c>
+      <c r="D49">
+        <v>0.02789480544433345</v>
+      </c>
+      <c r="E49">
+        <v>-0.04203766538437659</v>
+      </c>
+      <c r="F49">
+        <v>-0.05026641631718801</v>
+      </c>
+      <c r="G49">
+        <v>0.01546925154662869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05112570343899824</v>
+        <v>-0.05194474854490404</v>
       </c>
       <c r="C50">
-        <v>0.031790454688888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03482080062792816</v>
+      </c>
+      <c r="D50">
+        <v>0.03320213633237772</v>
+      </c>
+      <c r="E50">
+        <v>0.01201354653578927</v>
+      </c>
+      <c r="F50">
+        <v>0.01042384768385701</v>
+      </c>
+      <c r="G50">
+        <v>0.02463286259018522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1415733756787058</v>
+        <v>-0.1368201513397449</v>
       </c>
       <c r="C52">
-        <v>0.03318478134636503</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.0325022462832555</v>
+      </c>
+      <c r="D52">
+        <v>0.05949337913259236</v>
+      </c>
+      <c r="E52">
+        <v>0.01479397336521801</v>
+      </c>
+      <c r="F52">
+        <v>-0.07422978575523967</v>
+      </c>
+      <c r="G52">
+        <v>0.03423716443187139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1687475251224174</v>
+        <v>-0.1619345603881166</v>
       </c>
       <c r="C53">
-        <v>-0.01118668158695809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.007633011314015894</v>
+      </c>
+      <c r="D53">
+        <v>0.09887601723934072</v>
+      </c>
+      <c r="E53">
+        <v>0.006621694109835418</v>
+      </c>
+      <c r="F53">
+        <v>-0.124510157693033</v>
+      </c>
+      <c r="G53">
+        <v>0.07118178243338621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01111053254468568</v>
+        <v>-0.01415585916684031</v>
       </c>
       <c r="C54">
-        <v>0.03592844834081147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.03565970459702215</v>
+      </c>
+      <c r="D54">
+        <v>0.02429704300644302</v>
+      </c>
+      <c r="E54">
+        <v>0.006865854661676495</v>
+      </c>
+      <c r="F54">
+        <v>0.04859391481475738</v>
+      </c>
+      <c r="G54">
+        <v>0.00437360338260658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.121012921551615</v>
+        <v>-0.1186049702802869</v>
       </c>
       <c r="C55">
-        <v>0.009186020666611602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01378275385525709</v>
+      </c>
+      <c r="D55">
+        <v>0.08362727252745682</v>
+      </c>
+      <c r="E55">
+        <v>0.02619444184438885</v>
+      </c>
+      <c r="F55">
+        <v>-0.04089808830111464</v>
+      </c>
+      <c r="G55">
+        <v>0.0682914199942091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1784982918341324</v>
+        <v>-0.1726724931457267</v>
       </c>
       <c r="C56">
-        <v>-0.009786711772863582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.009034779652326722</v>
+      </c>
+      <c r="D56">
+        <v>0.06200551107796685</v>
+      </c>
+      <c r="E56">
+        <v>0.04032322471402133</v>
+      </c>
+      <c r="F56">
+        <v>-0.1535010756729658</v>
+      </c>
+      <c r="G56">
+        <v>0.07213637340945063</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04265867296372806</v>
+        <v>-0.04264715164944548</v>
       </c>
       <c r="C58">
-        <v>0.09605238948494293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1057261760714459</v>
+      </c>
+      <c r="D58">
+        <v>0.02050515651945267</v>
+      </c>
+      <c r="E58">
+        <v>0.03091734589407686</v>
+      </c>
+      <c r="F58">
+        <v>0.04123733403707901</v>
+      </c>
+      <c r="G58">
+        <v>0.02042941331199769</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1872797359497135</v>
+        <v>-0.1920423761992072</v>
       </c>
       <c r="C59">
-        <v>-0.1687112989635526</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.176415687677915</v>
+      </c>
+      <c r="D59">
+        <v>-0.07794278757025107</v>
+      </c>
+      <c r="E59">
+        <v>0.04266619341817361</v>
+      </c>
+      <c r="F59">
+        <v>0.0760082184774054</v>
+      </c>
+      <c r="G59">
+        <v>0.03949595671683914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2136459968193519</v>
+        <v>-0.2098427431445967</v>
       </c>
       <c r="C60">
-        <v>0.0112718428766404</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01392101508869836</v>
+      </c>
+      <c r="D60">
+        <v>-0.04392132730557843</v>
+      </c>
+      <c r="E60">
+        <v>0.04401390033448507</v>
+      </c>
+      <c r="F60">
+        <v>-0.1914771879507517</v>
+      </c>
+      <c r="G60">
+        <v>0.0935077826563893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06369161227951629</v>
+        <v>-0.06127347115224413</v>
       </c>
       <c r="C61">
-        <v>0.1230569943875923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1215594940700667</v>
+      </c>
+      <c r="D61">
+        <v>0.04097656059196991</v>
+      </c>
+      <c r="E61">
+        <v>0.005066324032726852</v>
+      </c>
+      <c r="F61">
+        <v>0.08730779278230473</v>
+      </c>
+      <c r="G61">
+        <v>0.01727442551172996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1683312709373992</v>
+        <v>-0.1652364683980281</v>
       </c>
       <c r="C62">
-        <v>-0.007012189916926227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.006166424201652727</v>
+      </c>
+      <c r="D62">
+        <v>0.05543646335515127</v>
+      </c>
+      <c r="E62">
+        <v>0.03333234636056626</v>
+      </c>
+      <c r="F62">
+        <v>-0.1263450941350082</v>
+      </c>
+      <c r="G62">
+        <v>0.0594772486225397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03825936336648044</v>
+        <v>-0.04222654037507611</v>
       </c>
       <c r="C63">
-        <v>0.07482676457492082</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.07859294680015048</v>
+      </c>
+      <c r="D63">
+        <v>0.03287255599998046</v>
+      </c>
+      <c r="E63">
+        <v>0.007747008697880455</v>
+      </c>
+      <c r="F63">
+        <v>0.04809054555115223</v>
+      </c>
+      <c r="G63">
+        <v>-0.02802936122755897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1118392961468038</v>
+        <v>-0.1096149768442959</v>
       </c>
       <c r="C64">
-        <v>0.05082546464589664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.05486703274090619</v>
+      </c>
+      <c r="D64">
+        <v>0.03750390153344665</v>
+      </c>
+      <c r="E64">
+        <v>0.003956858324214447</v>
+      </c>
+      <c r="F64">
+        <v>-0.03865146821484199</v>
+      </c>
+      <c r="G64">
+        <v>0.0008398472554564558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1592716897800614</v>
+        <v>-0.1620947453333642</v>
       </c>
       <c r="C65">
-        <v>-0.05891022521134907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0482697741268957</v>
+      </c>
+      <c r="D65">
+        <v>0.04964672691045151</v>
+      </c>
+      <c r="E65">
+        <v>-0.03315324709586241</v>
+      </c>
+      <c r="F65">
+        <v>-0.01436686124340878</v>
+      </c>
+      <c r="G65">
+        <v>0.02588264541572365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0966678973383914</v>
+        <v>-0.09164003015906871</v>
       </c>
       <c r="C66">
-        <v>0.1279896762304796</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1272941572856091</v>
+      </c>
+      <c r="D66">
+        <v>0.036875167869154</v>
+      </c>
+      <c r="E66">
+        <v>-0.002540049095455295</v>
+      </c>
+      <c r="F66">
+        <v>0.1034203629391324</v>
+      </c>
+      <c r="G66">
+        <v>-0.006365947815269705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05809027694124362</v>
+        <v>-0.05012290481188489</v>
       </c>
       <c r="C67">
-        <v>0.09440148287166417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.08533759412630119</v>
+      </c>
+      <c r="D67">
+        <v>-0.01660896954305593</v>
+      </c>
+      <c r="E67">
+        <v>0.09164620362796734</v>
+      </c>
+      <c r="F67">
+        <v>-0.03070052598182747</v>
+      </c>
+      <c r="G67">
+        <v>0.0003196952291731919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1422089811548071</v>
+        <v>-0.1434946177134805</v>
       </c>
       <c r="C68">
-        <v>-0.2459996579773775</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2477426245695963</v>
+      </c>
+      <c r="D68">
+        <v>-0.07497674016421063</v>
+      </c>
+      <c r="E68">
+        <v>-0.08282884429355038</v>
+      </c>
+      <c r="F68">
+        <v>0.1210085395365476</v>
+      </c>
+      <c r="G68">
+        <v>0.02019586936784642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03961665836315916</v>
+        <v>-0.03848389707271199</v>
       </c>
       <c r="C69">
-        <v>0.0162701324052073</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01818100273618019</v>
+      </c>
+      <c r="D69">
+        <v>0.02994700311482325</v>
+      </c>
+      <c r="E69">
+        <v>0.0571686690002471</v>
+      </c>
+      <c r="F69">
+        <v>-0.04166826764225394</v>
+      </c>
+      <c r="G69">
+        <v>-0.02425185251199055</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.0747544968735495</v>
+        <v>-0.07429043737322026</v>
       </c>
       <c r="C70">
-        <v>0.0941784474125988</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09217352793445308</v>
+      </c>
+      <c r="D70">
+        <v>-0.3469490656540526</v>
+      </c>
+      <c r="E70">
+        <v>0.3917294328431908</v>
+      </c>
+      <c r="F70">
+        <v>-0.2827918577419424</v>
+      </c>
+      <c r="G70">
+        <v>0.4270085701621867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1661886640048961</v>
+        <v>-0.1685541077677776</v>
       </c>
       <c r="C71">
-        <v>-0.252580883255612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2515910680505183</v>
+      </c>
+      <c r="D71">
+        <v>-0.08416450768683777</v>
+      </c>
+      <c r="E71">
+        <v>-0.09191660607513738</v>
+      </c>
+      <c r="F71">
+        <v>0.1248869508417933</v>
+      </c>
+      <c r="G71">
+        <v>0.02142303148982588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1442502248926777</v>
+        <v>-0.1491758737511884</v>
       </c>
       <c r="C72">
-        <v>0.006422385972552635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.006199182322959739</v>
+      </c>
+      <c r="D72">
+        <v>0.08042383607998879</v>
+      </c>
+      <c r="E72">
+        <v>0.0265569211771086</v>
+      </c>
+      <c r="F72">
+        <v>-0.02659519836416808</v>
+      </c>
+      <c r="G72">
+        <v>-0.008604995240738487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1918850096800516</v>
+        <v>-0.2002036017165862</v>
       </c>
       <c r="C73">
-        <v>0.02478907186230404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.03141640779390777</v>
+      </c>
+      <c r="D73">
+        <v>0.08549293164763702</v>
+      </c>
+      <c r="E73">
+        <v>0.03202704280637009</v>
+      </c>
+      <c r="F73">
+        <v>-0.1054364365662466</v>
+      </c>
+      <c r="G73">
+        <v>-0.001156114233497164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08652014420313558</v>
+        <v>-0.08547566159623346</v>
       </c>
       <c r="C74">
-        <v>0.0005031833982488456</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.007410048247559317</v>
+      </c>
+      <c r="D74">
+        <v>0.08178543871921026</v>
+      </c>
+      <c r="E74">
+        <v>-0.0008312546329467876</v>
+      </c>
+      <c r="F74">
+        <v>-0.07122138842554772</v>
+      </c>
+      <c r="G74">
+        <v>0.0007523896592701501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1226606350298718</v>
+        <v>-0.1152582940918341</v>
       </c>
       <c r="C75">
-        <v>0.01957470796616738</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02169078473878854</v>
+      </c>
+      <c r="D75">
+        <v>0.07362758983081077</v>
+      </c>
+      <c r="E75">
+        <v>0.04837596389983714</v>
+      </c>
+      <c r="F75">
+        <v>-0.06639907759486705</v>
+      </c>
+      <c r="G75">
+        <v>0.04005638884609328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0740106155687443</v>
+        <v>-0.08575445482013709</v>
       </c>
       <c r="C77">
-        <v>0.1130299469029744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1178524077071852</v>
+      </c>
+      <c r="D77">
+        <v>0.07044720158759792</v>
+      </c>
+      <c r="E77">
+        <v>-0.04812446757990278</v>
+      </c>
+      <c r="F77">
+        <v>0.07899364908659869</v>
+      </c>
+      <c r="G77">
+        <v>0.116211980633102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08410255304742663</v>
+        <v>-0.08865943462391017</v>
       </c>
       <c r="C78">
-        <v>0.1260627849056819</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.125495062845414</v>
+      </c>
+      <c r="D78">
+        <v>0.05845147077689436</v>
+      </c>
+      <c r="E78">
+        <v>-0.03693441565133023</v>
+      </c>
+      <c r="F78">
+        <v>0.09794520122886513</v>
+      </c>
+      <c r="G78">
+        <v>0.0909732595922846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1663478713093335</v>
+        <v>-0.1625694184225015</v>
       </c>
       <c r="C79">
-        <v>0.01686865247206711</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01840540911056733</v>
+      </c>
+      <c r="D79">
+        <v>0.04603137346523551</v>
+      </c>
+      <c r="E79">
+        <v>0.03512464026513604</v>
+      </c>
+      <c r="F79">
+        <v>-0.05899752315808092</v>
+      </c>
+      <c r="G79">
+        <v>0.04108416940212511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07487582169208569</v>
+        <v>-0.07245108678885059</v>
       </c>
       <c r="C80">
-        <v>0.07112533747640283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.06742388487249397</v>
+      </c>
+      <c r="D80">
+        <v>0.0285210000970854</v>
+      </c>
+      <c r="E80">
+        <v>0.02993042333192548</v>
+      </c>
+      <c r="F80">
+        <v>0.09716951690893189</v>
+      </c>
+      <c r="G80">
+        <v>-0.09691225619023967</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1114670817989893</v>
+        <v>-0.1050427323603218</v>
       </c>
       <c r="C81">
-        <v>-0.01643870025930215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01406571127996517</v>
+      </c>
+      <c r="D81">
+        <v>0.04732929662643377</v>
+      </c>
+      <c r="E81">
+        <v>0.06456190229282437</v>
+      </c>
+      <c r="F81">
+        <v>-0.07418394951659725</v>
+      </c>
+      <c r="G81">
+        <v>-0.0009671914091099331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1621225808805505</v>
+        <v>-0.156980625604586</v>
       </c>
       <c r="C82">
-        <v>-0.01899834614345939</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01420660479623824</v>
+      </c>
+      <c r="D82">
+        <v>0.08873841602750003</v>
+      </c>
+      <c r="E82">
+        <v>-0.01247490262418871</v>
+      </c>
+      <c r="F82">
+        <v>-0.1322048881600469</v>
+      </c>
+      <c r="G82">
+        <v>-0.0005271438371823122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05441007461669055</v>
+        <v>-0.05022633405557361</v>
       </c>
       <c r="C83">
-        <v>0.06727553955708598</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06237556250461301</v>
+      </c>
+      <c r="D83">
+        <v>-0.004328144165881996</v>
+      </c>
+      <c r="E83">
+        <v>0.00477614375961927</v>
+      </c>
+      <c r="F83">
+        <v>-0.002621498729500066</v>
+      </c>
+      <c r="G83">
+        <v>0.01357559798117977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04909197689679291</v>
+        <v>-0.04797811677485619</v>
       </c>
       <c r="C84">
-        <v>0.0758207128086598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07324303751256386</v>
+      </c>
+      <c r="D84">
+        <v>0.001581604447875713</v>
+      </c>
+      <c r="E84">
+        <v>0.02975991685161207</v>
+      </c>
+      <c r="F84">
+        <v>-0.006075918066214579</v>
+      </c>
+      <c r="G84">
+        <v>0.0259608567155483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1382570970914498</v>
+        <v>-0.1333500182549282</v>
       </c>
       <c r="C85">
-        <v>0.003792240856149259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.005890090891433788</v>
+      </c>
+      <c r="D85">
+        <v>0.09466501537402719</v>
+      </c>
+      <c r="E85">
+        <v>0.0004543755625130959</v>
+      </c>
+      <c r="F85">
+        <v>-0.05496549246538715</v>
+      </c>
+      <c r="G85">
+        <v>0.0293531559186735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08286330512160182</v>
+        <v>-0.08209818932338381</v>
       </c>
       <c r="C86">
-        <v>0.1470179989562054</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1472087399487552</v>
+      </c>
+      <c r="D86">
+        <v>-0.3424803886934281</v>
+      </c>
+      <c r="E86">
+        <v>0.5493271291145507</v>
+      </c>
+      <c r="F86">
+        <v>0.5299166978781965</v>
+      </c>
+      <c r="G86">
+        <v>-0.1432922766091234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09128922860116882</v>
+        <v>-0.08769490062399626</v>
       </c>
       <c r="C87">
-        <v>0.1016710162862139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1004308715060024</v>
+      </c>
+      <c r="D87">
+        <v>0.02241988499605835</v>
+      </c>
+      <c r="E87">
+        <v>-0.1580956713202493</v>
+      </c>
+      <c r="F87">
+        <v>0.07732377831839778</v>
+      </c>
+      <c r="G87">
+        <v>-0.03879041380822898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06014955704916659</v>
+        <v>-0.05992068997282898</v>
       </c>
       <c r="C88">
-        <v>0.05944117372579848</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.0601832454307506</v>
+      </c>
+      <c r="D88">
+        <v>0.01944611109806395</v>
+      </c>
+      <c r="E88">
+        <v>0.0108496069037185</v>
+      </c>
+      <c r="F88">
+        <v>-0.02491060631531098</v>
+      </c>
+      <c r="G88">
+        <v>0.01312564399295073</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1515910030705473</v>
+        <v>-0.1516371781252842</v>
       </c>
       <c r="C89">
-        <v>-0.1964367792804374</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2045898974808014</v>
+      </c>
+      <c r="D89">
+        <v>-0.05728238912835675</v>
+      </c>
+      <c r="E89">
+        <v>-0.07669843411794144</v>
+      </c>
+      <c r="F89">
+        <v>0.09021395409599428</v>
+      </c>
+      <c r="G89">
+        <v>-0.006950183937354159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1827647223723681</v>
+        <v>-0.1860961575212868</v>
       </c>
       <c r="C90">
-        <v>-0.2256367122675065</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2303647612299231</v>
+      </c>
+      <c r="D90">
+        <v>-0.1114735125430456</v>
+      </c>
+      <c r="E90">
+        <v>-0.1221514571411218</v>
+      </c>
+      <c r="F90">
+        <v>0.1421013970188298</v>
+      </c>
+      <c r="G90">
+        <v>0.00346998347756131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1268537673342923</v>
+        <v>-0.1208826294865668</v>
       </c>
       <c r="C91">
-        <v>-0.02513713719355132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02161998443596662</v>
+      </c>
+      <c r="D91">
+        <v>0.05304956068870519</v>
+      </c>
+      <c r="E91">
+        <v>0.1101832370753732</v>
+      </c>
+      <c r="F91">
+        <v>-0.09570100765643921</v>
+      </c>
+      <c r="G91">
+        <v>-0.01063469092020055</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1760160592857426</v>
+        <v>-0.1766376946102804</v>
       </c>
       <c r="C92">
-        <v>-0.2591218300872673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2713488478615858</v>
+      </c>
+      <c r="D92">
+        <v>-0.08499038405324183</v>
+      </c>
+      <c r="E92">
+        <v>-0.07564383172994639</v>
+      </c>
+      <c r="F92">
+        <v>0.1952000119973051</v>
+      </c>
+      <c r="G92">
+        <v>0.05037942914094596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.179697269657617</v>
+        <v>-0.1864594808275847</v>
       </c>
       <c r="C93">
-        <v>-0.2189758037048316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2243958527921772</v>
+      </c>
+      <c r="D93">
+        <v>-0.05665134958476708</v>
+      </c>
+      <c r="E93">
+        <v>-0.05166122308414414</v>
+      </c>
+      <c r="F93">
+        <v>0.0966087409287984</v>
+      </c>
+      <c r="G93">
+        <v>0.06253570845044693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1178811033659614</v>
+        <v>-0.112349223682295</v>
       </c>
       <c r="C94">
-        <v>0.03261316383268734</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03341914463959415</v>
+      </c>
+      <c r="D94">
+        <v>0.06705690095229361</v>
+      </c>
+      <c r="E94">
+        <v>0.04741571918316252</v>
+      </c>
+      <c r="F94">
+        <v>-0.0647322133482743</v>
+      </c>
+      <c r="G94">
+        <v>0.03601311829244542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1177105085275369</v>
+        <v>-0.1198634912872767</v>
       </c>
       <c r="C95">
-        <v>0.1006025386831136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1110569256227439</v>
+      </c>
+      <c r="D95">
+        <v>0.02694259852390364</v>
+      </c>
+      <c r="E95">
+        <v>0.03037249833016651</v>
+      </c>
+      <c r="F95">
+        <v>0.07739372707062049</v>
+      </c>
+      <c r="G95">
+        <v>0.01232013290000976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1163046311500039</v>
+        <v>-0.1141273949257779</v>
       </c>
       <c r="C96">
-        <v>0.1245633170582395</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1279817934546099</v>
+      </c>
+      <c r="D96">
+        <v>-0.01232908702454048</v>
+      </c>
+      <c r="E96">
+        <v>-0.002139055064574318</v>
+      </c>
+      <c r="F96">
+        <v>-0.06541559709232188</v>
+      </c>
+      <c r="G96">
+        <v>0.09622208848496364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1919233573127659</v>
+        <v>-0.1969730669730492</v>
       </c>
       <c r="C97">
-        <v>0.005152137795794518</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.0009261176103090596</v>
+      </c>
+      <c r="D97">
+        <v>-0.1150892881233716</v>
+      </c>
+      <c r="E97">
+        <v>0.1594482093573482</v>
+      </c>
+      <c r="F97">
+        <v>-0.2993521066627864</v>
+      </c>
+      <c r="G97">
+        <v>-0.812520216831309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2016750880154038</v>
+        <v>-0.207143996136755</v>
       </c>
       <c r="C98">
-        <v>0.02792751140699139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03035764273478662</v>
+      </c>
+      <c r="D98">
+        <v>-0.1007155100922437</v>
+      </c>
+      <c r="E98">
+        <v>-0.008860898944693114</v>
+      </c>
+      <c r="F98">
+        <v>-0.1059752764592353</v>
+      </c>
+      <c r="G98">
+        <v>0.01007202726173471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05395267306182641</v>
+        <v>-0.05323771575891773</v>
       </c>
       <c r="C99">
-        <v>0.05973637427428248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05968739849971732</v>
+      </c>
+      <c r="D99">
+        <v>0.007014165726334566</v>
+      </c>
+      <c r="E99">
+        <v>-0.003535158608119376</v>
+      </c>
+      <c r="F99">
+        <v>0.03125506660598018</v>
+      </c>
+      <c r="G99">
+        <v>-0.01341681438020897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.1094049572238463</v>
+        <v>-0.1030747498919255</v>
       </c>
       <c r="C100">
-        <v>0.3853353109640752</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.3584061856558951</v>
+      </c>
+      <c r="D100">
+        <v>-0.6697455839431046</v>
+      </c>
+      <c r="E100">
+        <v>-0.527770264440439</v>
+      </c>
+      <c r="F100">
+        <v>-0.09976106455870837</v>
+      </c>
+      <c r="G100">
+        <v>-0.03010255063313563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02370909477427479</v>
+        <v>-0.0263802753850278</v>
       </c>
       <c r="C101">
-        <v>0.0505285928851555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0487975196516883</v>
+      </c>
+      <c r="D101">
+        <v>0.0200463497811949</v>
+      </c>
+      <c r="E101">
+        <v>0.01310463288673313</v>
+      </c>
+      <c r="F101">
+        <v>0.07061909049031642</v>
+      </c>
+      <c r="G101">
+        <v>-0.0007718491172557603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
